--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3009445.371757608</v>
+        <v>3005192.892130983</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>107.4621059945619</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>254.9925224375474</v>
       </c>
       <c r="G2" t="n">
-        <v>13.90750774234413</v>
+        <v>413.9075077423441</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548841</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607226</v>
+        <v>62.22601572607307</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387723</v>
+        <v>177.2262711387726</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9882312337391</v>
+        <v>216.9882312337392</v>
       </c>
       <c r="U2" t="n">
         <v>251.2340345260132</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>25.82657257487941</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5970034220423</v>
+        <v>136.5970034220424</v>
       </c>
       <c r="H3" t="n">
-        <v>105.0256931046871</v>
+        <v>105.0256931046872</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031448</v>
+        <v>63.69429571031472</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870426</v>
+        <v>53.80849853870469</v>
       </c>
       <c r="S3" t="n">
-        <v>157.8170057799447</v>
+        <v>157.8170057799449</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1557544486214</v>
+        <v>50.273828035169</v>
       </c>
       <c r="U3" t="n">
         <v>225.8922693348453</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>109.8298712007967</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.6627788836668</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724861</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>29.96204639798076</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.284891972296</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9169039459368</v>
+        <v>177.6086713495717</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>15.36812118257838</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1025,7 +1025,7 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>77.43213079320253</v>
+        <v>77.43213079320299</v>
       </c>
       <c r="T6" t="n">
         <v>195.0194028815133</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>54.01448934540367</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>111.5266024655407</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>78.68964162015398</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>233.8447291789213</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>24.41957856507846</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>54.95314960271702</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.95497330698053</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>67.96934215963584</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.795251606876045</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>82.5214078207332</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>33.82351723687706</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>80.67842139643689</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>25.2632269748843</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>59.00369384633101</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>112.6849016609948</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>172.3645574474261</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>99.9742741983392</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>72.26558381699965</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>72.57619040703456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3319,13 +3319,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>20.92847288552893</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>48.34531439065476</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>45.16086499484926</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>108.3613954702478</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560541</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089713</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>164.3593773323622</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710082</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>138.5468473585367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1486.996160949584</v>
+        <v>1839.764816219682</v>
       </c>
       <c r="C2" t="n">
-        <v>1378.448579136895</v>
+        <v>1470.802299279271</v>
       </c>
       <c r="D2" t="n">
-        <v>1020.182880530145</v>
+        <v>1112.53660067252</v>
       </c>
       <c r="E2" t="n">
-        <v>634.3946279319007</v>
+        <v>726.748348074276</v>
       </c>
       <c r="F2" t="n">
-        <v>223.4087231422931</v>
+        <v>469.1801435919049</v>
       </c>
       <c r="G2" t="n">
-        <v>209.3607355237637</v>
+        <v>51.09175193297138</v>
       </c>
       <c r="H2" t="n">
-        <v>209.3607355237637</v>
+        <v>51.09175193297138</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297168</v>
+        <v>51.09175193297138</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710342</v>
+        <v>156.496154571033</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351005026</v>
+        <v>435.2148351004998</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311669</v>
+        <v>833.2666318311619</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537228</v>
+        <v>1292.782497537221</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813647</v>
+        <v>1745.101812813638</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132818</v>
+        <v>2127.026478132806</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935773</v>
+        <v>2415.315960935759</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648584</v>
+        <v>2554.587596648569</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309117</v>
+        <v>2491.733035309102</v>
       </c>
       <c r="S2" t="n">
-        <v>2312.716599815408</v>
+        <v>2312.716599815392</v>
       </c>
       <c r="T2" t="n">
-        <v>2093.536568266176</v>
+        <v>2093.53656826616</v>
       </c>
       <c r="U2" t="n">
-        <v>1839.764816219698</v>
+        <v>1839.764816219682</v>
       </c>
       <c r="V2" t="n">
-        <v>1839.764816219698</v>
+        <v>1839.764816219682</v>
       </c>
       <c r="W2" t="n">
-        <v>1486.996160949584</v>
+        <v>1839.764816219682</v>
       </c>
       <c r="X2" t="n">
-        <v>1486.996160949584</v>
+        <v>1839.764816219682</v>
       </c>
       <c r="Y2" t="n">
-        <v>1486.996160949584</v>
+        <v>1839.764816219682</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>840.2866238777665</v>
+        <v>988.652206113561</v>
       </c>
       <c r="C3" t="n">
-        <v>814.1991768324337</v>
+        <v>814.199176832434</v>
       </c>
       <c r="D3" t="n">
-        <v>665.2647671711825</v>
+        <v>665.2647671711827</v>
       </c>
       <c r="E3" t="n">
-        <v>506.027312165727</v>
+        <v>506.0273121657272</v>
       </c>
       <c r="F3" t="n">
-        <v>359.492754192612</v>
+        <v>359.4927541926121</v>
       </c>
       <c r="G3" t="n">
         <v>221.5159830592359</v>
       </c>
       <c r="H3" t="n">
-        <v>115.4294243676328</v>
+        <v>115.4294243676327</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297168</v>
+        <v>51.09175193297138</v>
       </c>
       <c r="J3" t="n">
-        <v>120.1765123687514</v>
+        <v>120.1765123687504</v>
       </c>
       <c r="K3" t="n">
-        <v>207.7339934539397</v>
+        <v>364.8742147270532</v>
       </c>
       <c r="L3" t="n">
-        <v>598.1646481335605</v>
+        <v>755.3048694066727</v>
       </c>
       <c r="M3" t="n">
-        <v>1105.75802836071</v>
+        <v>1105.758028360701</v>
       </c>
       <c r="N3" t="n">
-        <v>1642.492908358688</v>
+        <v>1642.492908358677</v>
       </c>
       <c r="O3" t="n">
-        <v>2067.084785635561</v>
+        <v>2067.084785635549</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.854132153975</v>
+        <v>2390.854132153961</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648584</v>
+        <v>2554.587596648569</v>
       </c>
       <c r="R3" t="n">
-        <v>2500.23557792262</v>
+        <v>2500.235577922605</v>
       </c>
       <c r="S3" t="n">
-        <v>2340.824460973181</v>
+        <v>2340.824460973166</v>
       </c>
       <c r="T3" t="n">
-        <v>2141.677234257402</v>
+        <v>2290.042816493197</v>
       </c>
       <c r="U3" t="n">
-        <v>1913.503224828266</v>
+        <v>2061.86880706406</v>
       </c>
       <c r="V3" t="n">
-        <v>1678.351116596523</v>
+        <v>1826.716698832317</v>
       </c>
       <c r="W3" t="n">
-        <v>1424.113759868321</v>
+        <v>1572.479342104116</v>
       </c>
       <c r="X3" t="n">
-        <v>1216.262259662788</v>
+        <v>1364.627841898583</v>
       </c>
       <c r="Y3" t="n">
-        <v>1008.501960897835</v>
+        <v>1156.867543133629</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.3369831285947</v>
+        <v>162.0310157721599</v>
       </c>
       <c r="C4" t="n">
-        <v>209.3369831285947</v>
+        <v>162.0310157721599</v>
       </c>
       <c r="D4" t="n">
-        <v>209.3369831285947</v>
+        <v>162.0310157721599</v>
       </c>
       <c r="E4" t="n">
-        <v>209.3369831285947</v>
+        <v>51.09175193297138</v>
       </c>
       <c r="F4" t="n">
-        <v>209.3369831285947</v>
+        <v>51.09175193297138</v>
       </c>
       <c r="G4" t="n">
-        <v>209.3369831285947</v>
+        <v>51.09175193297138</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297168</v>
+        <v>51.09175193297138</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297168</v>
+        <v>51.09175193297138</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297168</v>
+        <v>51.09175193297138</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771866</v>
+        <v>101.0304570771856</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703279</v>
+        <v>220.4612409703261</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486111</v>
+        <v>356.7733802486084</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493217</v>
+        <v>495.2789379493181</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455663</v>
+        <v>607.1949427455619</v>
       </c>
       <c r="P4" t="n">
-        <v>679.437736707143</v>
+        <v>679.4377367071379</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.437736707143</v>
+        <v>679.4377367071379</v>
       </c>
       <c r="R4" t="n">
-        <v>528.7783350177631</v>
+        <v>679.4377367071379</v>
       </c>
       <c r="S4" t="n">
-        <v>498.5136416864694</v>
+        <v>679.4377367071379</v>
       </c>
       <c r="T4" t="n">
-        <v>498.5136416864694</v>
+        <v>679.4377367071379</v>
       </c>
       <c r="U4" t="n">
-        <v>209.3369831285947</v>
+        <v>679.4377367071379</v>
       </c>
       <c r="V4" t="n">
-        <v>209.3369831285947</v>
+        <v>679.4377367071379</v>
       </c>
       <c r="W4" t="n">
-        <v>209.3369831285947</v>
+        <v>390.0205666701773</v>
       </c>
       <c r="X4" t="n">
-        <v>209.3369831285947</v>
+        <v>162.0310157721599</v>
       </c>
       <c r="Y4" t="n">
-        <v>209.3369831285947</v>
+        <v>162.0310157721599</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1202.508284627941</v>
+        <v>357.2879562499965</v>
       </c>
       <c r="C5" t="n">
-        <v>833.5457676875296</v>
+        <v>357.2879562499965</v>
       </c>
       <c r="D5" t="n">
-        <v>475.2800690807791</v>
+        <v>357.2879562499965</v>
       </c>
       <c r="E5" t="n">
-        <v>475.2800690807791</v>
+        <v>357.2879562499965</v>
       </c>
       <c r="F5" t="n">
-        <v>64.29416429117158</v>
+        <v>350.3424555007931</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>170.9397571678923</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>72.4810365613864</v>
+        <v>239.8866855817394</v>
       </c>
       <c r="K5" t="n">
-        <v>475.9481495814319</v>
+        <v>643.3537986017849</v>
       </c>
       <c r="L5" t="n">
-        <v>736.8718763869338</v>
+        <v>782.6824544430381</v>
       </c>
       <c r="M5" t="n">
-        <v>923.5712892123414</v>
+        <v>969.3818672684457</v>
       </c>
       <c r="N5" t="n">
-        <v>1550.878957272188</v>
+        <v>1340.687116518883</v>
       </c>
       <c r="O5" t="n">
-        <v>2098.040162039265</v>
+        <v>1887.84832128596</v>
       </c>
       <c r="P5" t="n">
-        <v>2527.35520837856</v>
+        <v>2317.163367625255</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2546.815973670278</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2332.016111937989</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="U5" t="n">
-        <v>2332.016111937989</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="V5" t="n">
-        <v>2332.016111937989</v>
+        <v>1860.261541821124</v>
       </c>
       <c r="W5" t="n">
-        <v>1979.247456667875</v>
+        <v>1507.49288655101</v>
       </c>
       <c r="X5" t="n">
-        <v>1979.247456667875</v>
+        <v>1134.02712828993</v>
       </c>
       <c r="Y5" t="n">
-        <v>1589.108124692063</v>
+        <v>743.8877963141183</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>198.067621432882</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768661</v>
+        <v>97.15164357768663</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K6" t="n">
-        <v>380.675190873813</v>
+        <v>118.8546062313602</v>
       </c>
       <c r="L6" t="n">
-        <v>885.0367307399315</v>
+        <v>297.8406424065417</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.565353453463</v>
+        <v>932.0196261855803</v>
       </c>
       <c r="N6" t="n">
-        <v>1358.222095106128</v>
+        <v>1566.198609964619</v>
       </c>
       <c r="O6" t="n">
-        <v>1907.658103858851</v>
+        <v>2115.634618717342</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339687</v>
+        <v>2539.602387198178</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.2467865680031</v>
+        <v>536.0872902500015</v>
       </c>
       <c r="C7" t="n">
-        <v>51.2467865680031</v>
+        <v>367.1511073220946</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>217.0344679097588</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="J7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4749,28 +4749,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>996.6213777794653</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="S7" t="n">
-        <v>789.1810930318708</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="T7" t="n">
-        <v>789.1810930318708</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="U7" t="n">
-        <v>500.0289166095505</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="V7" t="n">
-        <v>500.0289166095505</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="W7" t="n">
-        <v>500.0289166095505</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="X7" t="n">
-        <v>272.0393657115332</v>
+        <v>938.5283342237714</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.2467865680031</v>
+        <v>717.7357550802412</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.132293616578</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C8" t="n">
-        <v>939.1697766761661</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>684.90618255198</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>299.1179299537358</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656511</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>2084.871465656511</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y8" t="n">
-        <v>1694.732133680699</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1739.316620925522</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2071.387056101683</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2318.56978993398</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.3634259803388</v>
+        <v>393.5881086072305</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>224.6519256793236</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>224.6519256793236</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>224.6519256793236</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>224.6519256793236</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>224.6519256793236</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>75.91302754282984</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1478.354481668143</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1255.376000862879</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>966.2576633667164</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>711.5731751608296</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>422.1560051238689</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X10" t="n">
-        <v>422.1560051238689</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.3634259803388</v>
+        <v>575.2365734374703</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,16 +5056,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6605733532803</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253734</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.091168225067</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.10161732705</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.30903818352</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811333</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W19" t="n">
-        <v>1399.536196722681</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X19" t="n">
-        <v>1171.546645824663</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.7540666811333</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="20">
@@ -5731,37 +5731,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5770,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5837,7 +5837,7 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
         <v>1373.553594266881</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>810.0653816078141</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C22" t="n">
-        <v>641.1291986799072</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D22" t="n">
-        <v>491.0125592675714</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.0218491516696</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.3100179938677</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2421.444672494519</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2238.589838149423</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2018.988373172364</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1729.913146516562</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1440.495976479601</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X22" t="n">
-        <v>1212.506425581584</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>991.7138464380538</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1815.886107649656</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3233.200736907821</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>3414.849201738061</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>3414.849201738061</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836013</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>734.6461798836013</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>584.5295404712656</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>436.6164468888725</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>289.7264993909621</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>289.7264993909621</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630498</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D31" t="n">
-        <v>2438.670847218162</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>2438.670847218162</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6694,52 +6694,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591808</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1360.39208240939</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1132.402531511373</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,25 +6949,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7001,40 +7001,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3161.371083047029</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>2992.434900119122</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>2842.318260706786</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E37" t="n">
-        <v>2842.318260706786</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>2695.428313208876</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>2528.232213923756</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>2386.520382765954</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822165</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998105</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650994</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650994</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673935</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>4115.110757018133</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>3860.426268812246</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>3571.009098775286</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>3343.019547877268</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>3343.019547877268</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7159,25 +7159,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,13 +7186,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7204,19 +7204,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3584617859342</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>747.3584617859342</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>599.4453682035411</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>452.5554207056307</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>285.3593214205106</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M41" t="n">
         <v>2206.55866301478</v>
@@ -7426,34 +7426,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,55 +7545,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>808.8888553856862</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>639.9526724577793</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>489.8360330454435</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E43" t="n">
-        <v>341.9229394630504</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F43" t="n">
-        <v>341.9229394630504</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
         <v>2264.108249235165</v>
@@ -7611,10 +7611,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.329899359456</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>990.5373202159259</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,52 +7636,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1548.439543391538</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1259.022373354577</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1031.03282245656</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>105.7377407771084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>306.9775675145257</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>122.8233040042916</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>178.7586225842976</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8297,16 +8297,16 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>42.17822036311881</v>
       </c>
       <c r="M6" t="n">
-        <v>95.99119834235006</v>
+        <v>459.2743913378118</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>439.9214566933068</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>54.95314511566477</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>129.751134705686</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154988</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>-3.896249620919986e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>104.8770068749568</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>218.5536561769551</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7894017452188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>203.6630665685109</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>252.6994810997139</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.5874149221286302</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.11201973523738</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>108.2431272522968</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>27.60981118522912</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>114.1584408891649</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>45.44677382459204</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>145.1398665102886</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>213.9468079295564</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>32.92052192791078</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>134.671115187088</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>31.93331737597606</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.164760959906658</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>36.41624546988311</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>113.5907959652913</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>835916.4568224164</v>
+        <v>835916.4568224163</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846404</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365055</v>
@@ -26331,22 +26331,22 @@
         <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365053</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365054</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161988</v>
+        <v>548460.0746161945</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299249</v>
+        <v>225009.981629929</v>
       </c>
       <c r="D3" t="n">
         <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843806</v>
+        <v>167098.1292843796</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243595968</v>
+        <v>498.7619243605624</v>
       </c>
       <c r="L3" t="n">
-        <v>4.701846959010311e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
-        <v>1.239030900486999e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.19711258155959e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198058</v>
+        <v>247452.361919807</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26432,7 +26432,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
@@ -26441,25 +26441,25 @@
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719632</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719741</v>
+        <v>7507.368461719636</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719674</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719626</v>
+        <v>7507.368461719647</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719645</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719637</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946042</v>
+        <v>80023.31371946013</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905216</v>
+        <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-178050.2458708242</v>
+        <v>-178050.2458708205</v>
       </c>
       <c r="C6" t="n">
-        <v>189049.9513155112</v>
+        <v>189049.9513155068</v>
       </c>
       <c r="D6" t="n">
-        <v>180148.858875025</v>
+        <v>180148.8588750252</v>
       </c>
       <c r="E6" t="n">
-        <v>69959.26982633282</v>
+        <v>69611.89057197588</v>
       </c>
       <c r="F6" t="n">
-        <v>577444.7114508788</v>
+        <v>577097.3321965218</v>
       </c>
       <c r="G6" t="n">
-        <v>577444.7114508788</v>
+        <v>577097.3321965218</v>
       </c>
       <c r="H6" t="n">
-        <v>577444.711450879</v>
+        <v>577097.3321965218</v>
       </c>
       <c r="I6" t="n">
-        <v>577444.7114508789</v>
+        <v>577097.3321965218</v>
       </c>
       <c r="J6" t="n">
-        <v>410346.5821664982</v>
+        <v>409999.2029121422</v>
       </c>
       <c r="K6" t="n">
-        <v>576945.949526519</v>
+        <v>576598.570272161</v>
       </c>
       <c r="L6" t="n">
-        <v>577444.7114508785</v>
+        <v>577097.3321965217</v>
       </c>
       <c r="M6" t="n">
-        <v>444837.4177219517</v>
+        <v>444490.0384675948</v>
       </c>
       <c r="N6" t="n">
-        <v>577444.7114508788</v>
+        <v>577097.3321965218</v>
       </c>
       <c r="O6" t="n">
-        <v>577444.7114508789</v>
+        <v>577097.332196522</v>
       </c>
       <c r="P6" t="n">
-        <v>577444.7114508785</v>
+        <v>577097.3321965216</v>
       </c>
     </row>
   </sheetData>
@@ -26715,10 +26715,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817405</v>
+        <v>347.0634059817373</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.646899162146</v>
+        <v>638.6468991621423</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26822,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26937,16 +26937,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.237369942571238e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817405</v>
+        <v>347.0634059817373</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563246</v>
+        <v>246.4126943563278</v>
       </c>
       <c r="D3" t="n">
         <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.646899162146</v>
+        <v>638.6468991621423</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937892697</v>
+        <v>1.937932937896562</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.646899162146</v>
+        <v>638.6468991621423</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937892811</v>
+        <v>1.937932937896562</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.646899162146</v>
+        <v>638.6468991621423</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937892697</v>
+        <v>1.937932937896562</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>257.8107857764456</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>151.883523304164</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051722</v>
+        <v>325.1859052051723</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>156.6862937548846</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>146.8819264134363</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>146.8819264134524</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>36.60409144577251</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>167.3651273148851</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
-        <v>136.6293971077895</v>
+        <v>136.6293971077897</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601711</v>
+        <v>49.11144063601753</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845158</v>
+        <v>33.75546894845206</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>149.1528076724863</v>
       </c>
       <c r="S4" t="n">
-        <v>183.1476573887128</v>
+        <v>213.1097037866937</v>
       </c>
       <c r="T4" t="n">
         <v>225.2714943330124</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.284891972296</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>235.3082325963651</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.2847659455618</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>70.53999045278903</v>
+        <v>70.53999045278857</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>75.15869232238765</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>114.1830529234965</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>275.993400000529</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>173.0313165627901</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>80.37701663882211</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>139.7093107590204</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29748,10 +29748,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.115507284182283e-12</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>5.877308698762889e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30528,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-5.142369289011372e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30699,7 +30699,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-6.751381063403296e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790915</v>
+        <v>1.395229772790903</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059497</v>
+        <v>14.28889691059483</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552181</v>
+        <v>53.78959581552132</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284131</v>
+        <v>118.418382928412</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106525</v>
+        <v>177.4784592106509</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697026</v>
+        <v>220.1777223697005</v>
       </c>
       <c r="M2" t="n">
-        <v>244.990139841573</v>
+        <v>244.9901398415707</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335152</v>
+        <v>248.9543364335129</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803255</v>
+        <v>235.0805203803234</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645498</v>
+        <v>200.6357853645479</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264751</v>
+        <v>150.6691191264737</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507742</v>
+        <v>87.64310221507661</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747302</v>
+        <v>31.79379844747272</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392235</v>
+        <v>6.107618330392179</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232732</v>
+        <v>0.1116183818232722</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.746513741168272</v>
+        <v>0.7465137411682651</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809364</v>
+        <v>7.209751131809298</v>
       </c>
       <c r="I3" t="n">
-        <v>25.7023371411006</v>
+        <v>25.70233714110036</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502521</v>
+        <v>70.52917762502456</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832994</v>
+        <v>120.5455982832983</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426987</v>
+        <v>162.0884331426972</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600485</v>
+        <v>189.1495562600468</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821814</v>
+        <v>194.1557821821796</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857686</v>
+        <v>177.614609285767</v>
       </c>
       <c r="P3" t="n">
-        <v>142.551382732387</v>
+        <v>142.5513827323857</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351487</v>
+        <v>95.29182422351398</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393887</v>
+        <v>46.34933561393844</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389311</v>
+        <v>13.86616532389299</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200183</v>
+        <v>3.008974246200155</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0491127461294916</v>
+        <v>0.04911274612949115</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736302</v>
+        <v>0.6258520435736246</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772826</v>
+        <v>5.564393623772775</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946882</v>
+        <v>18.82107781946864</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065566</v>
+        <v>44.24773948065525</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519084</v>
+        <v>72.71262833519017</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730138</v>
+        <v>93.04713018730052</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218278</v>
+        <v>98.10515261218188</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886296</v>
+        <v>95.77243135886208</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711643</v>
+        <v>88.46134157711562</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821431</v>
+        <v>75.69395988821361</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324281</v>
+        <v>52.40657430324233</v>
       </c>
       <c r="R4" t="n">
-        <v>28.1405837046834</v>
+        <v>28.14058370468315</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027863</v>
+        <v>10.90689425027853</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269147</v>
+        <v>2.674095095269122</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492533</v>
+        <v>0.03413738419492501</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>353.3934907042774</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>284.1014732918236</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>225.4828684302377</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>152.5685698206133</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>181.6580975439405</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935738005</v>
+        <v>106.4690935737995</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368367</v>
+        <v>281.5340207368351</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501658</v>
+        <v>402.0725219501637</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071327</v>
+        <v>464.1574401071305</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489085</v>
+        <v>456.8881972489062</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213841</v>
+        <v>385.782490221382</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807629</v>
+        <v>291.201497780761</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119303</v>
+        <v>140.6784199119289</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.78258629876736</v>
+        <v>69.7825862987667</v>
       </c>
       <c r="K3" t="n">
-        <v>88.44190008604879</v>
+        <v>247.1693963215179</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662837</v>
+        <v>394.3743986662822</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880301</v>
+        <v>353.9930898525541</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444424016</v>
+        <v>542.1564444423998</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180538</v>
+        <v>428.880684118052</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579939</v>
+        <v>327.0397439579926</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.3873378733425</v>
+        <v>165.3873378733416</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930799</v>
+        <v>50.44313650930732</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476175</v>
+        <v>120.6371554476167</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740234</v>
+        <v>137.6890295740225</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380916</v>
+        <v>139.9046037380907</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911561</v>
+        <v>113.0464694911553</v>
       </c>
       <c r="P4" t="n">
-        <v>72.9725191531078</v>
+        <v>72.9725191531071</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>263.5593200055574</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>375.0558073236737</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
@@ -34956,7 +34956,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>180.7939759345269</v>
       </c>
       <c r="M6" t="n">
-        <v>277.3016391045771</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35035,7 +35035,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>421.8844773977053</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
         <v>391.197099592874</v>
@@ -35272,7 +35272,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>246.2318570365406</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>219.4190832899471</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>224.339029438562</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>82.88662398579324</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683797</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>25.73094315394661</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>23.94570355317166</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3005192.892130983</v>
+        <v>3006953.422433767</v>
       </c>
     </row>
     <row r="7">
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>254.9925224375474</v>
+        <v>98.30622868267459</v>
       </c>
       <c r="G2" t="n">
         <v>413.9075077423441</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>156.6862937548842</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607307</v>
+        <v>62.22601572607249</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387726</v>
+        <v>177.2262711387724</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9882312337392</v>
+        <v>216.9882312337391</v>
       </c>
       <c r="U2" t="n">
         <v>251.2340345260132</v>
@@ -755,10 +755,10 @@
         <v>136.5970034220424</v>
       </c>
       <c r="H3" t="n">
-        <v>105.0256931046872</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031472</v>
+        <v>21.83806240156118</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870469</v>
+        <v>53.80849853870438</v>
       </c>
       <c r="S3" t="n">
-        <v>157.8170057799449</v>
+        <v>157.8170057799447</v>
       </c>
       <c r="T3" t="n">
-        <v>50.273828035169</v>
+        <v>197.1557544486214</v>
       </c>
       <c r="U3" t="n">
         <v>225.8922693348453</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>109.8298712007967</v>
+        <v>109.8298712008002</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>118.8945364285227</v>
       </c>
       <c r="G5" t="n">
-        <v>177.6086713495717</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>77.43213079320299</v>
+        <v>143.7787198346241</v>
       </c>
       <c r="T6" t="n">
         <v>195.0194028815133</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>49.94675160484169</v>
       </c>
       <c r="X7" t="n">
-        <v>111.5266024655407</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>233.8447291789213</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>196.6997841156786</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>56.60860467372778</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>24.41957856507846</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.95497330698053</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060142</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>95.12712756824217</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>82.5214078207332</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824217</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>80.67842139643689</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2323,13 +2323,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>101.6969570046975</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>113.707646477138</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>172.3645574474261</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>72.26558381699965</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3082,7 +3082,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881284</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>20.92847288552893</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>203.471764537331</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3556,10 +3556,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>45.16086499484926</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969026</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560541</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.32649042089713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710082</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>110.0177171766861</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>19.88691958258317</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1839.764816219682</v>
+        <v>1839.764816219694</v>
       </c>
       <c r="C2" t="n">
-        <v>1470.802299279271</v>
+        <v>1470.802299279283</v>
       </c>
       <c r="D2" t="n">
-        <v>1112.53660067252</v>
+        <v>1112.536600672532</v>
       </c>
       <c r="E2" t="n">
-        <v>726.748348074276</v>
+        <v>726.7483480742878</v>
       </c>
       <c r="F2" t="n">
-        <v>469.1801435919049</v>
+        <v>627.4491271826973</v>
       </c>
       <c r="G2" t="n">
-        <v>51.09175193297138</v>
+        <v>209.3607355237638</v>
       </c>
       <c r="H2" t="n">
-        <v>51.09175193297138</v>
+        <v>209.3607355237638</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297138</v>
+        <v>51.09175193297161</v>
       </c>
       <c r="J2" t="n">
-        <v>156.496154571033</v>
+        <v>156.4961545710341</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351004998</v>
+        <v>435.2148351005021</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311619</v>
+        <v>833.2666318311658</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537221</v>
+        <v>1292.782497537227</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813638</v>
+        <v>1745.101812813645</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132806</v>
+        <v>2127.026478132815</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935759</v>
+        <v>2415.31596093577</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648569</v>
+        <v>2554.587596648581</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309102</v>
+        <v>2491.733035309113</v>
       </c>
       <c r="S2" t="n">
-        <v>2312.716599815392</v>
+        <v>2312.716599815404</v>
       </c>
       <c r="T2" t="n">
-        <v>2093.53656826616</v>
+        <v>2093.536568266172</v>
       </c>
       <c r="U2" t="n">
-        <v>1839.764816219682</v>
+        <v>1839.764816219694</v>
       </c>
       <c r="V2" t="n">
-        <v>1839.764816219682</v>
+        <v>1839.764816219694</v>
       </c>
       <c r="W2" t="n">
-        <v>1839.764816219682</v>
+        <v>1839.764816219694</v>
       </c>
       <c r="X2" t="n">
-        <v>1839.764816219682</v>
+        <v>1839.764816219694</v>
       </c>
       <c r="Y2" t="n">
-        <v>1839.764816219682</v>
+        <v>1839.764816219694</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.652206113561</v>
+        <v>840.2866238777624</v>
       </c>
       <c r="C3" t="n">
-        <v>814.199176832434</v>
+        <v>665.8335945966354</v>
       </c>
       <c r="D3" t="n">
-        <v>665.2647671711827</v>
+        <v>516.8991849353841</v>
       </c>
       <c r="E3" t="n">
-        <v>506.0273121657272</v>
+        <v>357.6617299299286</v>
       </c>
       <c r="F3" t="n">
-        <v>359.4927541926121</v>
+        <v>211.1271719568136</v>
       </c>
       <c r="G3" t="n">
-        <v>221.5159830592359</v>
+        <v>73.15040082343745</v>
       </c>
       <c r="H3" t="n">
-        <v>115.4294243676327</v>
+        <v>73.15040082343745</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297138</v>
+        <v>51.09175193297161</v>
       </c>
       <c r="J3" t="n">
-        <v>120.1765123687504</v>
+        <v>120.1765123687511</v>
       </c>
       <c r="K3" t="n">
-        <v>364.8742147270532</v>
+        <v>364.8742147270547</v>
       </c>
       <c r="L3" t="n">
-        <v>755.3048694066727</v>
+        <v>755.3048694066752</v>
       </c>
       <c r="M3" t="n">
-        <v>1105.758028360701</v>
+        <v>1262.898249633824</v>
       </c>
       <c r="N3" t="n">
-        <v>1642.492908358677</v>
+        <v>1799.633129631802</v>
       </c>
       <c r="O3" t="n">
-        <v>2067.084785635549</v>
+        <v>2067.084785635559</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.854132153961</v>
+        <v>2390.854132153972</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648569</v>
+        <v>2554.587596648581</v>
       </c>
       <c r="R3" t="n">
-        <v>2500.235577922605</v>
+        <v>2500.235577922616</v>
       </c>
       <c r="S3" t="n">
-        <v>2340.824460973166</v>
+        <v>2340.824460973177</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.042816493197</v>
+        <v>2141.677234257398</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.86880706406</v>
+        <v>1913.503224828261</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.716698832317</v>
+        <v>1678.351116596519</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.479342104116</v>
+        <v>1424.113759868317</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.627841898583</v>
+        <v>1216.262259662784</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.867543133629</v>
+        <v>1008.50196089783</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.0310157721599</v>
+        <v>162.0310157721637</v>
       </c>
       <c r="C4" t="n">
-        <v>162.0310157721599</v>
+        <v>162.0310157721637</v>
       </c>
       <c r="D4" t="n">
-        <v>162.0310157721599</v>
+        <v>162.0310157721637</v>
       </c>
       <c r="E4" t="n">
-        <v>51.09175193297138</v>
+        <v>51.09175193297161</v>
       </c>
       <c r="F4" t="n">
-        <v>51.09175193297138</v>
+        <v>51.09175193297161</v>
       </c>
       <c r="G4" t="n">
-        <v>51.09175193297138</v>
+        <v>51.09175193297161</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297138</v>
+        <v>51.09175193297161</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297138</v>
+        <v>51.09175193297161</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297138</v>
+        <v>51.09175193297161</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771856</v>
+        <v>101.0304570771864</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703261</v>
+        <v>220.4612409703275</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486084</v>
+        <v>356.7733802486104</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493181</v>
+        <v>495.2789379493207</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455619</v>
+        <v>607.1949427455651</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071379</v>
+        <v>679.4377367071417</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.4377367071379</v>
+        <v>679.4377367071417</v>
       </c>
       <c r="R4" t="n">
-        <v>679.4377367071379</v>
+        <v>679.4377367071417</v>
       </c>
       <c r="S4" t="n">
-        <v>679.4377367071379</v>
+        <v>679.4377367071417</v>
       </c>
       <c r="T4" t="n">
-        <v>679.4377367071379</v>
+        <v>679.4377367071417</v>
       </c>
       <c r="U4" t="n">
-        <v>679.4377367071379</v>
+        <v>679.4377367071417</v>
       </c>
       <c r="V4" t="n">
-        <v>679.4377367071379</v>
+        <v>679.4377367071417</v>
       </c>
       <c r="W4" t="n">
-        <v>390.0205666701773</v>
+        <v>390.020566670181</v>
       </c>
       <c r="X4" t="n">
-        <v>162.0310157721599</v>
+        <v>162.0310157721637</v>
       </c>
       <c r="Y4" t="n">
-        <v>162.0310157721599</v>
+        <v>162.0310157721637</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>357.2879562499965</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C5" t="n">
-        <v>357.2879562499965</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="D5" t="n">
-        <v>357.2879562499965</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="E5" t="n">
-        <v>357.2879562499965</v>
+        <v>1026.346145500897</v>
       </c>
       <c r="F5" t="n">
-        <v>350.3424555007931</v>
+        <v>906.2506541589553</v>
       </c>
       <c r="G5" t="n">
-        <v>170.9397571678923</v>
+        <v>489.1628723953828</v>
       </c>
       <c r="H5" t="n">
         <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>239.8866855817394</v>
+        <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>643.3537986017849</v>
+        <v>155.0441911359788</v>
       </c>
       <c r="L5" t="n">
-        <v>782.6824544430381</v>
+        <v>294.3728469772319</v>
       </c>
       <c r="M5" t="n">
-        <v>969.3818672684457</v>
+        <v>926.0906579605437</v>
       </c>
       <c r="N5" t="n">
-        <v>1340.687116518883</v>
+        <v>1553.39832602039</v>
       </c>
       <c r="O5" t="n">
-        <v>1887.84832128596</v>
+        <v>2100.559530787468</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625255</v>
+        <v>2527.35520837856</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2406.124290896983</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2191.324429164695</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2191.324429164695</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1860.261541821124</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1507.49288655101</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1134.02712828993</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y5" t="n">
-        <v>743.8877963141183</v>
+        <v>1798.734238163263</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>918.7636139849254</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>744.3105847037984</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>595.3761750425472</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>436.1387200370916</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>289.6041620639766</v>
       </c>
       <c r="G6" t="n">
-        <v>198.067621432882</v>
+        <v>152.1627644231985</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768663</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K6" t="n">
-        <v>118.8546062313602</v>
+        <v>380.675190873813</v>
       </c>
       <c r="L6" t="n">
-        <v>297.8406424065417</v>
+        <v>885.0367307399315</v>
       </c>
       <c r="M6" t="n">
-        <v>932.0196261855803</v>
+        <v>1367.541868311954</v>
       </c>
       <c r="N6" t="n">
-        <v>1566.198609964619</v>
+        <v>1566.198609964618</v>
       </c>
       <c r="O6" t="n">
-        <v>2115.634618717342</v>
+        <v>2115.634618717341</v>
       </c>
       <c r="P6" t="n">
         <v>2539.602387198178</v>
@@ -4670,28 +4670,28 @@
         <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2541.227428802342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2463.013155273854</v>
+        <v>2417.108298264171</v>
       </c>
       <c r="T6" t="n">
-        <v>2266.023859433942</v>
+        <v>2220.119002424259</v>
       </c>
       <c r="U6" t="n">
-        <v>2037.885071945108</v>
+        <v>1991.980214935424</v>
       </c>
       <c r="V6" t="n">
-        <v>1802.732963713365</v>
+        <v>1756.828106703682</v>
       </c>
       <c r="W6" t="n">
-        <v>1548.495606985163</v>
+        <v>1502.59074997548</v>
       </c>
       <c r="X6" t="n">
-        <v>1340.644106779631</v>
+        <v>1294.739249769947</v>
       </c>
       <c r="Y6" t="n">
-        <v>1132.883808014677</v>
+        <v>1086.978951004993</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>536.0872902500015</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C7" t="n">
-        <v>367.1511073220946</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>217.0344679097588</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4764,13 +4764,13 @@
         <v>1051.181468027348</v>
       </c>
       <c r="W7" t="n">
-        <v>1051.181468027348</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X7" t="n">
-        <v>938.5283342237714</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y7" t="n">
-        <v>717.7357550802412</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1412.134398099142</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>1043.17188115873</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>684.90618255198</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>299.1179299537358</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
         <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4846,10 +4846,10 @@
         <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139076</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163264</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495379</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1352.031492328576</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1739.316620925522</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>2071.387056101683</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2318.56978993398</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.5881086072305</v>
+        <v>427.4800176695869</v>
       </c>
       <c r="C10" t="n">
-        <v>224.6519256793236</v>
+        <v>258.54383474168</v>
       </c>
       <c r="D10" t="n">
-        <v>224.6519256793236</v>
+        <v>108.4271953293443</v>
       </c>
       <c r="E10" t="n">
-        <v>224.6519256793236</v>
+        <v>108.4271953293443</v>
       </c>
       <c r="F10" t="n">
-        <v>224.6519256793236</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>224.6519256793236</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>75.91302754282984</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4998,16 +4998,16 @@
         <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372448</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W10" t="n">
-        <v>803.2261243354876</v>
+        <v>1057.910612541374</v>
       </c>
       <c r="X10" t="n">
-        <v>575.2365734374703</v>
+        <v>829.9210616433568</v>
       </c>
       <c r="Y10" t="n">
-        <v>575.2365734374703</v>
+        <v>609.1284824998266</v>
       </c>
     </row>
     <row r="11">
@@ -5044,13 +5044,13 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,7 +5059,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5126,19 +5126,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797189</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,37 +5266,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5366,10 +5366,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5527,10 +5527,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5597,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>719.5738700011939</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>550.637687073287</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1894.106123115829</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1639.421634909942</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1350.004464872981</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1122.014913974964</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>901.2223348314336</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5731,28 +5731,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075802</v>
@@ -5767,34 +5767,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770323</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>634.3345878491255</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>484.2179484367897</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>484.2179484367897</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.2179484367897</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.0218491516696</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.3100179938677</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.70136564882</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072721</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5968,13 +5968,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,55 +5983,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6077,10 +6077,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6235,43 +6235,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,16 +6496,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6682,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6843,13 +6843,13 @@
         <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,19 +6934,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6970,16 +6970,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474266</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458823</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797189</v>
@@ -7122,25 +7122,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429802</v>
@@ -7326,10 +7326,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611859</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.284195611859</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,28 +7399,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7429,10 +7429,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398594</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282754</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458823</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797189</v>
@@ -7630,46 +7630,46 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398594</v>
@@ -7690,10 +7690,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400717</v>
+        <v>652.8121879835381</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>504.899094401145</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
   </sheetData>
@@ -8066,13 +8066,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>306.9775675145257</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>235.134823041259</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>178.7586225842976</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>319.2538912541066</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8297,16 +8297,16 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>42.17822036311881</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378118</v>
+        <v>306.0684860781992</v>
       </c>
       <c r="N6" t="n">
-        <v>439.9214566933068</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>129.751134705686</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>-2.95569748243736e-13</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>104.8770068749568</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>177.5728945814934</v>
       </c>
     </row>
     <row r="14">
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>53.48834544997018</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>203.6630665685109</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5874149221286302</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>65.5498640939303</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>104.8770068749568</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>114.1584408891649</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>145.1398665102886</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>63.36835372228704</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25362,7 +25362,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>83.05123379925999</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>134.671115187088</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>72.11969353038569</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -26028,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>36.41624546988311</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5341284403481</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>835916.4568224163</v>
+        <v>835916.4568224164</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846404</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846407</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846404</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365055</v>
@@ -26334,28 +26334,28 @@
         <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="L2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="J2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365053</v>
-      </c>
       <c r="M2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161945</v>
+        <v>548460.0746161976</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.981629929</v>
+        <v>225009.981629926</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230266</v>
+        <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843796</v>
+        <v>167098.1292843802</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243605624</v>
+        <v>498.7619243598016</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.361919807</v>
+        <v>247452.3619198061</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26426,7 +26426,7 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
@@ -26435,28 +26435,28 @@
         <v>7507.368461719668</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719632</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719636</v>
+        <v>7507.368461719635</v>
       </c>
       <c r="M4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="O4" t="n">
         <v>7507.368461719668</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.368461719647</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7507.368461719645</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719637</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946013</v>
+        <v>80023.31371946035</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905218</v>
+        <v>85512.93677905216</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-178050.2458708205</v>
+        <v>-178050.2458708237</v>
       </c>
       <c r="C6" t="n">
-        <v>189049.9513155068</v>
+        <v>189049.9513155103</v>
       </c>
       <c r="D6" t="n">
-        <v>180148.8588750252</v>
+        <v>180148.8588750249</v>
       </c>
       <c r="E6" t="n">
-        <v>69611.89057197588</v>
+        <v>69924.53190089688</v>
       </c>
       <c r="F6" t="n">
-        <v>577097.3321965218</v>
+        <v>577409.9735254429</v>
       </c>
       <c r="G6" t="n">
-        <v>577097.3321965218</v>
+        <v>577409.9735254431</v>
       </c>
       <c r="H6" t="n">
-        <v>577097.3321965218</v>
+        <v>577409.9735254431</v>
       </c>
       <c r="I6" t="n">
-        <v>577097.3321965218</v>
+        <v>577409.9735254431</v>
       </c>
       <c r="J6" t="n">
-        <v>409999.2029121422</v>
+        <v>410311.8442410626</v>
       </c>
       <c r="K6" t="n">
-        <v>576598.570272161</v>
+        <v>576911.2116010832</v>
       </c>
       <c r="L6" t="n">
-        <v>577097.3321965217</v>
+        <v>577409.9735254432</v>
       </c>
       <c r="M6" t="n">
-        <v>444490.0384675948</v>
+        <v>444802.6797965164</v>
       </c>
       <c r="N6" t="n">
-        <v>577097.3321965218</v>
+        <v>577409.9735254429</v>
       </c>
       <c r="O6" t="n">
-        <v>577097.332196522</v>
+        <v>577409.9735254431</v>
       </c>
       <c r="P6" t="n">
-        <v>577097.3321965216</v>
+        <v>577409.9735254431</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817373</v>
+        <v>347.0634059817396</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621423</v>
+        <v>638.6468991621451</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817373</v>
+        <v>347.0634059817396</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563278</v>
+        <v>246.4126943563255</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794743</v>
+        <v>340.588791779474</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621423</v>
+        <v>638.6468991621451</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937896562</v>
+        <v>1.937932937893606</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621423</v>
+        <v>638.6468991621449</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937896562</v>
+        <v>1.937932937893606</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621423</v>
+        <v>638.6468991621451</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937896562</v>
+        <v>1.937932937893606</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>151.883523304164</v>
+        <v>308.5698170590368</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051723</v>
+        <v>325.1859052051722</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548846</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.0256931046871</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.85623330875337</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>146.8819264134524</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>36.60409144577251</v>
+        <v>36.60409144576901</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
-        <v>136.6293971077897</v>
+        <v>136.6293971077895</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601753</v>
+        <v>49.11144063601723</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845206</v>
+        <v>33.75546894845171</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724863</v>
+        <v>149.1528076724861</v>
       </c>
       <c r="S4" t="n">
-        <v>213.1097037866937</v>
+        <v>213.1097037866936</v>
       </c>
       <c r="T4" t="n">
         <v>225.2714943330124</v>
@@ -27624,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>287.9815093131888</v>
       </c>
       <c r="G5" t="n">
-        <v>235.3082325963651</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>70.53999045278857</v>
+        <v>4.193401411367489</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>236.5762467317493</v>
       </c>
       <c r="X7" t="n">
-        <v>114.1830529234965</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>173.0313165627901</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>173.0313165627905</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>88.81244334920346</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>80.37701663882211</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30528,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>-5.142369289011372e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30699,13 +30699,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-6.751381063403296e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-3.33803666173185e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790903</v>
+        <v>1.395229772790912</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059483</v>
+        <v>14.28889691059493</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552132</v>
+        <v>53.78959581552169</v>
       </c>
       <c r="J2" t="n">
-        <v>118.418382928412</v>
+        <v>118.4183829284128</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106509</v>
+        <v>177.4784592106521</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697005</v>
+        <v>220.177722369702</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415707</v>
+        <v>244.9901398415724</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335129</v>
+        <v>248.9543364335146</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803234</v>
+        <v>235.0805203803249</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645479</v>
+        <v>200.6357853645493</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264737</v>
+        <v>150.6691191264747</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507661</v>
+        <v>87.64310221507719</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747272</v>
+        <v>31.79379844747294</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392179</v>
+        <v>6.10761833039222</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232722</v>
+        <v>0.1116183818232729</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682651</v>
+        <v>0.7465137411682701</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809298</v>
+        <v>7.209751131809346</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110036</v>
+        <v>25.70233714110053</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502456</v>
+        <v>70.52917762502504</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832983</v>
+        <v>120.5455982832991</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426972</v>
+        <v>162.0884331426983</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600468</v>
+        <v>189.1495562600481</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821796</v>
+        <v>194.1557821821809</v>
       </c>
       <c r="O3" t="n">
-        <v>177.614609285767</v>
+        <v>177.6146092857682</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323857</v>
+        <v>142.5513827323866</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351398</v>
+        <v>95.29182422351462</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393844</v>
+        <v>46.34933561393876</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389299</v>
+        <v>13.86616532389308</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200155</v>
+        <v>3.008974246200175</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949115</v>
+        <v>0.04911274612949147</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736246</v>
+        <v>0.6258520435736287</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772775</v>
+        <v>5.564393623772812</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946864</v>
+        <v>18.82107781946877</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065525</v>
+        <v>44.24773948065555</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519017</v>
+        <v>72.71262833519067</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730052</v>
+        <v>93.04713018730115</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218188</v>
+        <v>98.10515261218254</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886208</v>
+        <v>95.77243135886272</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711562</v>
+        <v>88.46134157711622</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821361</v>
+        <v>75.69395988821412</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324233</v>
+        <v>52.40657430324268</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468315</v>
+        <v>28.14058370468334</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027853</v>
+        <v>10.9068942502786</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269122</v>
+        <v>2.67409509526914</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492501</v>
+        <v>0.03413738419492524</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31846,22 +31846,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>302.5540177178164</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32086,13 +32086,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>248.0319961154042</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32554,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>248.0319961154042</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32569,7 +32569,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,31 +34444,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935737995</v>
+        <v>106.4690935738003</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368351</v>
+        <v>281.5340207368363</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501637</v>
+        <v>402.0725219501652</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071305</v>
+        <v>464.1574401071322</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489062</v>
+        <v>456.8881972489078</v>
       </c>
       <c r="O2" t="n">
-        <v>385.782490221382</v>
+        <v>385.7824902213836</v>
       </c>
       <c r="P2" t="n">
-        <v>291.201497780761</v>
+        <v>291.2014977807623</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119289</v>
+        <v>140.6784199119299</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.7825862987667</v>
+        <v>69.78258629876719</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215179</v>
+        <v>247.1693963215187</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662822</v>
+        <v>394.3743986662833</v>
       </c>
       <c r="M3" t="n">
-        <v>353.9930898525541</v>
+        <v>512.7205860880297</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444423998</v>
+        <v>542.1564444424012</v>
       </c>
       <c r="O3" t="n">
-        <v>428.880684118052</v>
+        <v>270.1531878825827</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579926</v>
+        <v>327.0397439579936</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.3873378733416</v>
+        <v>165.3873378733422</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930732</v>
+        <v>50.44313650930782</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476167</v>
+        <v>120.6371554476173</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740225</v>
+        <v>137.6890295740231</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380907</v>
+        <v>139.9046037380913</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911553</v>
+        <v>113.0464694911559</v>
       </c>
       <c r="P4" t="n">
-        <v>72.9725191531071</v>
+        <v>72.97251915310761</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
         <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>375.0558073236737</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>431.1067450415071</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>180.7939759345269</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>487.3789268404263</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>546.4575832202787</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>246.2318570365406</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>171.2123056344831</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193518</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36217,7 +36217,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193518</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,13 +37867,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
